--- a/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
@@ -9,6 +9,9 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$43</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -1253,6 +1256,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1605,7 +1623,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -1720,7 +1738,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>87</v>
       </c>
@@ -1837,7 +1855,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>95</v>
       </c>
@@ -1952,7 +1970,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>101</v>
       </c>
@@ -2069,7 +2087,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>107</v>
       </c>
@@ -2186,7 +2204,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>116</v>
       </c>
@@ -2303,7 +2321,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>124</v>
       </c>
@@ -2420,7 +2438,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>132</v>
       </c>
@@ -2537,7 +2555,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>140</v>
       </c>
@@ -2656,7 +2674,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>145</v>
       </c>
@@ -2773,7 +2791,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>153</v>
       </c>
@@ -2888,7 +2906,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>158</v>
       </c>
@@ -3003,7 +3021,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>164</v>
       </c>
@@ -3120,7 +3138,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>175</v>
       </c>
@@ -3235,7 +3253,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>185</v>
       </c>
@@ -3350,7 +3368,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>191</v>
       </c>
@@ -3467,7 +3485,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>202</v>
       </c>
@@ -3582,7 +3600,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>210</v>
       </c>
@@ -3697,7 +3715,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>218</v>
       </c>
@@ -3812,7 +3830,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>223</v>
       </c>
@@ -3927,7 +3945,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>231</v>
       </c>
@@ -4042,7 +4060,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>239</v>
       </c>
@@ -4157,7 +4175,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>245</v>
       </c>
@@ -4274,7 +4292,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>248</v>
       </c>
@@ -4393,7 +4411,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>253</v>
       </c>
@@ -4508,7 +4526,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>260</v>
       </c>
@@ -4623,7 +4641,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>266</v>
       </c>
@@ -4738,7 +4756,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>274</v>
       </c>
@@ -4855,7 +4873,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>283</v>
       </c>
@@ -4972,7 +4990,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>291</v>
       </c>
@@ -5087,7 +5105,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>297</v>
       </c>
@@ -5202,7 +5220,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>303</v>
       </c>
@@ -5221,7 +5239,7 @@
         <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>78</v>
@@ -5317,7 +5335,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>308</v>
       </c>
@@ -5432,7 +5450,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>309</v>
       </c>
@@ -5549,7 +5567,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>310</v>
       </c>
@@ -5668,7 +5686,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>311</v>
       </c>
@@ -5783,7 +5801,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>315</v>
       </c>
@@ -5900,7 +5918,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>323</v>
       </c>
@@ -6015,7 +6033,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
         <v>330</v>
       </c>
@@ -6132,7 +6150,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
         <v>338</v>
       </c>
@@ -6249,7 +6267,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
         <v>345</v>
       </c>
@@ -6366,7 +6384,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
         <v>352</v>
       </c>
@@ -6484,6 +6502,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AO43">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI42">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="359">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -539,6 +539,9 @@
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
+    <t>completeded</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
@@ -712,8 +715,8 @@
     <t>MedicationAdministration.effective[x]</t>
   </si>
   <si>
-    <t>dateTime
-Period</t>
+    <t xml:space="preserve">dateTime
+</t>
   </si>
   <si>
     <t>Start and end time of administration</t>
@@ -3069,7 +3072,7 @@
         <v>78</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>78</v>
@@ -3084,13 +3087,13 @@
         <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>78</v>
@@ -3123,16 +3126,16 @@
         <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>78</v>
@@ -3140,10 +3143,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3166,13 +3169,13 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3199,13 +3202,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -3223,7 +3226,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3238,16 +3241,16 @@
         <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>78</v>
@@ -3255,10 +3258,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3281,13 +3284,13 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3317,10 +3320,10 @@
         <v>112</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>78</v>
@@ -3338,7 +3341,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3356,7 +3359,7 @@
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3370,10 +3373,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3396,16 +3399,16 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3431,13 +3434,13 @@
         <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>78</v>
@@ -3455,7 +3458,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>88</v>
@@ -3470,16 +3473,16 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>78</v>
@@ -3487,10 +3490,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3513,13 +3516,13 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3570,7 +3573,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>88</v>
@@ -3585,16 +3588,16 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>78</v>
@@ -3602,10 +3605,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3619,7 +3622,7 @@
         <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>78</v>
@@ -3628,13 +3631,13 @@
         <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3685,7 +3688,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3700,16 +3703,16 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>78</v>
@@ -3717,10 +3720,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3743,13 +3746,13 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3800,7 +3803,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3818,10 +3821,10 @@
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -3832,10 +3835,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3858,13 +3861,13 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3915,7 +3918,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>88</v>
@@ -3930,16 +3933,16 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>78</v>
@@ -3947,10 +3950,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3964,7 +3967,7 @@
         <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>78</v>
@@ -3973,13 +3976,13 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4030,7 +4033,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4045,16 +4048,16 @@
         <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>78</v>
@@ -4062,10 +4065,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4088,13 +4091,13 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4145,7 +4148,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4163,7 +4166,7 @@
         <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>78</v>
@@ -4177,10 +4180,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4209,7 +4212,7 @@
         <v>135</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N24" t="s" s="2">
         <v>137</v>
@@ -4262,7 +4265,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4280,7 +4283,7 @@
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
@@ -4294,14 +4297,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4323,10 +4326,10 @@
         <v>134</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N25" t="s" s="2">
         <v>137</v>
@@ -4381,7 +4384,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4413,10 +4416,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4439,13 +4442,13 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4472,13 +4475,13 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -4496,7 +4499,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4511,10 +4514,10 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
@@ -4528,10 +4531,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4545,7 +4548,7 @@
         <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>78</v>
@@ -4554,13 +4557,13 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4611,7 +4614,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>88</v>
@@ -4626,10 +4629,10 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
@@ -4643,10 +4646,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4669,13 +4672,13 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4702,13 +4705,13 @@
         <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>78</v>
@@ -4726,7 +4729,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4741,16 +4744,16 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>78</v>
@@ -4758,10 +4761,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4784,16 +4787,16 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4843,7 +4846,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4858,27 +4861,27 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4892,7 +4895,7 @@
         <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>78</v>
@@ -4901,16 +4904,16 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4960,7 +4963,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -4975,16 +4978,16 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>78</v>
@@ -4992,10 +4995,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5018,13 +5021,13 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5075,7 +5078,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5093,13 +5096,13 @@
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>78</v>
@@ -5107,10 +5110,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5133,13 +5136,13 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5190,7 +5193,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5205,10 +5208,10 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5222,10 +5225,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5239,7 +5242,7 @@
         <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>78</v>
@@ -5248,13 +5251,13 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5305,7 +5308,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5317,13 +5320,13 @@
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5337,10 +5340,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5363,13 +5366,13 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5420,7 +5423,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5438,7 +5441,7 @@
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5452,10 +5455,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5484,7 +5487,7 @@
         <v>135</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>137</v>
@@ -5537,7 +5540,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5555,7 +5558,7 @@
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5569,14 +5572,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5598,10 +5601,10 @@
         <v>134</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>137</v>
@@ -5656,7 +5659,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5688,10 +5691,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5714,13 +5717,13 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5771,7 +5774,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5789,7 +5792,7 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -5803,10 +5806,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5829,16 +5832,16 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5864,13 +5867,13 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>78</v>
@@ -5888,7 +5891,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -5906,13 +5909,13 @@
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>78</v>
@@ -5920,10 +5923,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5931,7 +5934,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>88</v>
@@ -5946,13 +5949,13 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5979,13 +5982,13 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -6003,7 +6006,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6021,13 +6024,13 @@
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>78</v>
@@ -6035,10 +6038,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6061,16 +6064,16 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6096,13 +6099,13 @@
         <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>78</v>
@@ -6120,7 +6123,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6138,13 +6141,13 @@
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>78</v>
@@ -6152,10 +6155,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6163,7 +6166,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>88</v>
@@ -6178,16 +6181,16 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6237,7 +6240,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6255,13 +6258,13 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>78</v>
@@ -6269,10 +6272,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6295,16 +6298,16 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6354,7 +6357,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6372,13 +6375,13 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
@@ -6386,10 +6389,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6412,16 +6415,16 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6471,7 +6474,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6489,7 +6492,7 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>

--- a/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16</t>
+    <t>2024-05-27</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Identifisering av legemiddel administrert til pasient på institusjon.</t>
+    <t>Beskriver administrasjon av legemiddel til pasient på institusjon.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -539,7 +539,7 @@
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
-    <t>completeded</t>
+    <t>completed</t>
   </si>
   <si>
     <t>required</t>

--- a/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
@@ -530,10 +530,10 @@
     <t>MedicationAdministration.status</t>
   </si>
   <si>
-    <t>in-progress | not-done | on-hold | completed | entered-in-error | stopped | unknown</t>
-  </si>
-  <si>
-    <t>Will generally be set to show that the administration has been completed.  For some long running administrations such as infusions, it is possible for an administration to be started but not completed or it may be paused while some other process is under way.</t>
+    <t>Status administrering.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status administrering. Skal alltid være satt til utført = completed. </t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
@@ -653,7 +653,7 @@
 </t>
   </si>
   <si>
-    <t>Who received medication</t>
+    <t>Referanse til pasient</t>
   </si>
   <si>
     <t>The person or animal or group receiving the medication.</t>
@@ -678,10 +678,10 @@
 </t>
   </si>
   <si>
-    <t>Encounter or Episode of Care administered as part of</t>
-  </si>
-  <si>
-    <t>The visit, admission, or other contact between patient and health care provider during which the medication administration was performed.</t>
+    <t>Referanse til aktuelt opphold</t>
+  </si>
+  <si>
+    <t>Referanse til hvilket opphold eller avtale pasienten var på da legemiddelet ble administrert.</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -719,7 +719,7 @@
 </t>
   </si>
   <si>
-    <t>Start and end time of administration</t>
+    <t>Tidspunkt for administrasjon</t>
   </si>
   <si>
     <t>A specific date/time or interval of time during which the administration took place (or did not take place, when the 'notGiven' attribute is true). For many administrations, such as swallowing a tablet the use of dateTime is more appropriate.</t>
@@ -744,7 +744,7 @@
 </t>
   </si>
   <si>
-    <t>Who performed the medication administration and what they did</t>
+    <t>Helsepersonell som har administrert legemiddelet</t>
   </si>
   <si>
     <t>Indicates who or what performed the medication administration and how they were involved.</t>
@@ -906,7 +906,7 @@
 </t>
   </si>
   <si>
-    <t>Request administration performed against</t>
+    <t>Referanse til rekvisisjon</t>
   </si>
   <si>
     <t>The original request, instruction or authority to perform the administration.</t>
@@ -1028,7 +1028,7 @@
     <t>MedicationAdministration.dosage.route</t>
   </si>
   <si>
-    <t>Path of substance into body</t>
+    <t>Administrasjonsvei</t>
   </si>
   <si>
     <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto the patient.  For example, topical, intravenous, etc.</t>
@@ -1077,7 +1077,7 @@
 </t>
   </si>
   <si>
-    <t>Amount of medication per dose</t>
+    <t>Administrert mengde</t>
   </si>
   <si>
     <t>The amount of the medication given at one administration event.   Use this value when the administration is essentially an instantaneous event such as a swallowing a tablet or giving an injection.</t>

--- a/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.5.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.2</t>
+    <t>0.5.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.3</t>
+    <t>0.6.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="357">
   <si>
     <t>Property</t>
   </si>
@@ -539,16 +539,10 @@
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
-    <t>completed</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
-    <t>A set of codes indicating the current status of a MedicationAdministration.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-admin-status|4.0.1</t>
+    <t>http://hl7.no/fhir/ig/lmdi/ValueSet/lmdi-medicationadministration-status</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -1484,7 +1478,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="124.42578125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.77734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="66.82421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
@@ -3072,28 +3066,26 @@
         <v>78</v>
       </c>
       <c r="S14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="T14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" s="2"/>
+      <c r="Z14" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>78</v>
@@ -3126,16 +3118,16 @@
         <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>78</v>
@@ -3143,10 +3135,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3169,13 +3161,13 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3202,14 +3194,14 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="Z15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="Y15" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>182</v>
-      </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3226,7 +3218,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3241,16 +3233,16 @@
         <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>78</v>
@@ -3258,10 +3250,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3284,13 +3276,13 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3320,10 +3312,10 @@
         <v>112</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>78</v>
@@ -3341,7 +3333,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3359,7 +3351,7 @@
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3373,10 +3365,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3399,16 +3391,16 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3434,13 +3426,13 @@
         <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>78</v>
@@ -3458,7 +3450,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>88</v>
@@ -3473,16 +3465,16 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>78</v>
@@ -3490,10 +3482,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3516,13 +3508,13 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3573,7 +3565,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>88</v>
@@ -3588,16 +3580,16 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>78</v>
@@ -3605,10 +3597,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3631,13 +3623,13 @@
         <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3688,7 +3680,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3703,16 +3695,16 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>78</v>
@@ -3720,10 +3712,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3746,13 +3738,13 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3803,7 +3795,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3821,10 +3813,10 @@
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -3835,10 +3827,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3861,13 +3853,13 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3918,7 +3910,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>88</v>
@@ -3933,16 +3925,16 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>78</v>
@@ -3950,10 +3942,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3976,13 +3968,13 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4033,7 +4025,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4048,16 +4040,16 @@
         <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>78</v>
@@ -4065,10 +4057,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4091,13 +4083,13 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4148,7 +4140,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4166,7 +4158,7 @@
         <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>78</v>
@@ -4180,10 +4172,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4212,7 +4204,7 @@
         <v>135</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N24" t="s" s="2">
         <v>137</v>
@@ -4265,7 +4257,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4283,7 +4275,7 @@
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
@@ -4297,14 +4289,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4326,10 +4318,10 @@
         <v>134</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="N25" t="s" s="2">
         <v>137</v>
@@ -4384,7 +4376,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4416,10 +4408,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4442,13 +4434,13 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4475,13 +4467,13 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -4499,7 +4491,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4514,10 +4506,10 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
@@ -4531,10 +4523,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4557,13 +4549,13 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4614,7 +4606,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>88</v>
@@ -4629,10 +4621,10 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
@@ -4646,10 +4638,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4672,13 +4664,13 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4705,13 +4697,13 @@
         <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>78</v>
@@ -4729,7 +4721,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4744,16 +4736,16 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>78</v>
@@ -4761,10 +4753,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4787,16 +4779,16 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4846,7 +4838,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4861,27 +4853,27 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>283</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4904,16 +4896,16 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4963,7 +4955,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -4978,16 +4970,16 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>78</v>
@@ -4995,10 +4987,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5021,13 +5013,13 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5078,7 +5070,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5096,13 +5088,13 @@
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>78</v>
@@ -5110,10 +5102,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5136,13 +5128,13 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5193,7 +5185,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5208,10 +5200,10 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5225,10 +5217,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5251,13 +5243,13 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5308,7 +5300,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5320,13 +5312,13 @@
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5340,10 +5332,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5366,13 +5358,13 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5423,7 +5415,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5441,7 +5433,7 @@
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5455,10 +5447,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5487,7 +5479,7 @@
         <v>135</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>137</v>
@@ -5540,7 +5532,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5558,7 +5550,7 @@
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5572,14 +5564,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5601,10 +5593,10 @@
         <v>134</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>137</v>
@@ -5659,7 +5651,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5691,10 +5683,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5717,13 +5709,13 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5774,7 +5766,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5792,7 +5784,7 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -5806,10 +5798,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5832,16 +5824,16 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5867,13 +5859,13 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>78</v>
@@ -5891,7 +5883,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -5909,13 +5901,13 @@
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>78</v>
@@ -5923,10 +5915,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5949,13 +5941,13 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5982,13 +5974,13 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -6006,7 +5998,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6024,13 +6016,13 @@
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>78</v>
@@ -6038,10 +6030,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6064,16 +6056,16 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6099,13 +6091,13 @@
         <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>78</v>
@@ -6123,7 +6115,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6141,13 +6133,13 @@
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>78</v>
@@ -6155,10 +6147,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6181,16 +6173,16 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6240,7 +6232,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6258,13 +6250,13 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>78</v>
@@ -6272,10 +6264,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6298,16 +6290,16 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6357,7 +6349,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6375,13 +6367,13 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
@@ -6389,10 +6381,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6415,16 +6407,16 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6474,7 +6466,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6492,7 +6484,7 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>

--- a/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.0</t>
+    <t>0.6.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -668,7 +668,7 @@
     <t>MedicationAdministration.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(EpisodeOfCare)
 </t>
   </si>
   <si>

--- a/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.1</t>
+    <t>0.6.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.2</t>
+    <t>0.6.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -650,7 +650,7 @@
     <t>Referanse til pasient</t>
   </si>
   <si>
-    <t>The person or animal or group receiving the medication.</t>
+    <t>Det skal alltid være en referanse til pasienten som har blitt administrert legemiddel.</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -738,7 +738,7 @@
 </t>
   </si>
   <si>
-    <t>Helsepersonell som har administrert legemiddelet</t>
+    <t>Who performed the medication administration and what they did</t>
   </si>
   <si>
     <t>Indicates who or what performed the medication administration and how they were involved.</t>
@@ -829,10 +829,10 @@
 </t>
   </si>
   <si>
-    <t>Who performed the medication administration</t>
-  </si>
-  <si>
-    <t>Indicates who or what performed the medication administration.</t>
+    <t>Hvem som har administrert legemiddelet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utfører av administrering kan være helsepersonell eller en rolle knyttet til institusjonen eller pasienten. </t>
   </si>
   <si>
     <t>Event.performer.actor</t>

--- a/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.3</t>
+    <t>0.6.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.4</t>
+    <t>0.6.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
@@ -84,7 +84,8 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Beskriver administrasjon av legemiddel til pasient på institusjon.</t>
+    <t>Beskriver administrasjon av legemiddel til pasient på institusjon.
+{% include administrasjon.md %}</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
@@ -84,8 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Beskriver administrasjon av legemiddel til pasient på institusjon.
-{% include administrasjon.md %}</t>
+    <t>Beskriver administrasjon av legemiddel til pasient på institusjon.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$54</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="420">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.5</t>
+    <t>0.6.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -1038,6 +1038,198 @@
   </si>
   <si>
     <t>RXR-1-Route</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.route.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.route.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.route.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.route.coding.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.route.coding.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.route.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.route.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.route.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.route.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.route.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.route.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.method</t>
@@ -1444,7 +1636,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO43"/>
+  <dimension ref="A1:AO54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1453,8 +1645,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.53515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="51.53515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.46484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="56.46484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -1481,7 +1673,7 @@
     <col min="26" max="26" width="66.82421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="45.6171875" customWidth="true" bestFit="true" hidden="true"/>
@@ -6056,17 +6248,15 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>175</v>
+        <v>239</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>330</v>
+        <v>240</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6091,13 +6281,13 @@
         <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>333</v>
+        <v>78</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>334</v>
+        <v>78</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>78</v>
@@ -6115,7 +6305,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>329</v>
+        <v>242</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6127,19 +6317,19 @@
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>335</v>
+        <v>243</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>336</v>
+        <v>78</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>78</v>
@@ -6147,21 +6337,21 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -6173,16 +6363,16 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>338</v>
+        <v>134</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>339</v>
+        <v>135</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>340</v>
+        <v>245</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>341</v>
+        <v>137</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6220,43 +6410,43 @@
         <v>78</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>78</v>
+        <v>331</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>78</v>
+        <v>333</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>337</v>
+        <v>246</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>342</v>
+        <v>243</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>343</v>
+        <v>78</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>78</v>
@@ -6264,10 +6454,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6278,7 +6468,7 @@
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
@@ -6287,21 +6477,23 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6349,13 +6541,13 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
@@ -6367,13 +6559,13 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
@@ -6381,10 +6573,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6395,7 +6587,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -6407,17 +6599,15 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>352</v>
+        <v>239</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>353</v>
+        <v>240</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6466,38 +6656,1329 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO43" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO44" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="P45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF45" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AG43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH43" t="s" s="2">
+      <c r="AG45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AO45" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="P47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="Y47" s="2"/>
+      <c r="Z47" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="P48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="P49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="P50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G54" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AI43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
+      <c r="H54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AK43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO43" t="s" s="2">
+      <c r="AK54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO54" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO43">
+  <autoFilter ref="A1:AO54">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6507,7 +7988,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI42">
+  <conditionalFormatting sqref="A2:AI53">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$63</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2358" uniqueCount="442">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27</t>
+    <t>2024-06-12</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1025,7 +1025,7 @@
     <t>Administrasjonsvei</t>
   </si>
   <si>
-    <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto the patient.  For example, topical, intravenous, etc.</t>
+    <t xml:space="preserve">Aministrasjonsvei. Er begrenset til foreslått koding fra SNOMED CT-verdisettet til HL7 og Volven-kodeverket Administrasjonsvei (OID=7477) fra eResept. </t>
   </si>
   <si>
     <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
@@ -1075,6 +1075,13 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:system}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>CodeableConcept.coding</t>
   </si>
   <si>
@@ -1084,12 +1091,31 @@
     <t>C*E.1-8, C*E.10-22</t>
   </si>
   <si>
+    <t>MedicationAdministration.dosage.route.coding:SCT</t>
+  </si>
+  <si>
+    <t>SCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrasjonsvei (OID=7477)
+</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.route.coding:SCT.id</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.route.coding.id</t>
   </si>
   <si>
+    <t>MedicationAdministration.dosage.route.coding:SCT.extension</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.route.coding.extension</t>
   </si>
   <si>
+    <t>MedicationAdministration.dosage.route.coding:SCT.system</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.route.coding.system</t>
   </si>
   <si>
@@ -1117,6 +1143,9 @@
     <t>C*E.3</t>
   </si>
   <si>
+    <t>MedicationAdministration.dosage.route.coding:SCT.version</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.route.coding.version</t>
   </si>
   <si>
@@ -1138,6 +1167,9 @@
     <t>C*E.7</t>
   </si>
   <si>
+    <t>MedicationAdministration.dosage.route.coding:SCT.code</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.route.coding.code</t>
   </si>
   <si>
@@ -1159,6 +1191,9 @@
     <t>C*E.1</t>
   </si>
   <si>
+    <t>MedicationAdministration.dosage.route.coding:SCT.display</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.route.coding.display</t>
   </si>
   <si>
@@ -1178,6 +1213,9 @@
   </si>
   <si>
     <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.route.coding:SCT.userSelected</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.route.coding.userSelected</t>
@@ -1206,6 +1244,36 @@
   </si>
   <si>
     <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.route.coding:7477</t>
+  </si>
+  <si>
+    <t>7477</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.route.coding:7477.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.route.coding:7477.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.route.coding:7477.system</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.578.1.12.4.1.1.7477</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.route.coding:7477.version</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.route.coding:7477.code</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.route.coding:7477.display</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.route.coding:7477.userSelected</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.route.text</t>
@@ -1636,7 +1704,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO54"/>
+  <dimension ref="A1:AO63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1645,7 +1713,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.46484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="61.74609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="56.46484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -6529,19 +6597,17 @@
         <v>78</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>78</v>
+        <v>341</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6559,13 +6625,13 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
@@ -6573,14 +6639,16 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="D43" t="s" s="2">
-        <v>78</v>
+        <v>347</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6596,19 +6664,23 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>239</v>
+        <v>335</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>240</v>
+        <v>336</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
       </c>
@@ -6656,31 +6728,31 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>242</v>
+        <v>342</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>243</v>
+        <v>343</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>78</v>
+        <v>344</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -6688,21 +6760,21 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -6714,17 +6786,15 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>134</v>
+        <v>239</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -6761,31 +6831,31 @@
         <v>78</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>331</v>
+        <v>78</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>332</v>
+        <v>78</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>333</v>
+        <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
@@ -6805,21 +6875,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -6828,23 +6898,21 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>346</v>
+        <v>135</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>347</v>
+        <v>245</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
       </c>
@@ -6853,7 +6921,7 @@
         <v>78</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>350</v>
+        <v>78</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>78</v>
@@ -6880,43 +6948,43 @@
         <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>78</v>
+        <v>331</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>78</v>
+        <v>333</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>351</v>
+        <v>246</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>352</v>
+        <v>243</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>353</v>
+        <v>78</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>78</v>
@@ -6924,10 +6992,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6935,7 +7003,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>88</v>
@@ -6950,18 +7018,20 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>239</v>
+        <v>102</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
       </c>
@@ -6970,7 +7040,7 @@
         <v>78</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>78</v>
+        <v>358</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>78</v>
@@ -7009,7 +7079,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7027,13 +7097,13 @@
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>78</v>
@@ -7041,10 +7111,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7067,18 +7137,18 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>108</v>
+        <v>239</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7102,11 +7172,13 @@
         <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="Y47" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z47" t="s" s="2">
-        <v>326</v>
+        <v>78</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>78</v>
@@ -7124,7 +7196,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7142,13 +7214,13 @@
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>78</v>
@@ -7156,10 +7228,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7182,17 +7254,17 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7217,13 +7289,11 @@
         <v>78</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>78</v>
+        <v>326</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>78</v>
@@ -7241,7 +7311,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7259,13 +7329,13 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>78</v>
@@ -7273,10 +7343,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7299,19 +7369,17 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>376</v>
+        <v>239</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -7360,7 +7428,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7378,13 +7446,13 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>78</v>
@@ -7392,10 +7460,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7418,19 +7486,19 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>239</v>
+        <v>388</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7479,7 +7547,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7497,13 +7565,13 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>78</v>
@@ -7511,12 +7579,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="D51" t="s" s="2">
         <v>78</v>
       </c>
@@ -7534,21 +7604,23 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>175</v>
+        <v>335</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>393</v>
+        <v>336</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
       </c>
@@ -7572,13 +7644,13 @@
         <v>78</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>396</v>
+        <v>78</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>397</v>
+        <v>78</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>78</v>
@@ -7596,13 +7668,13 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>392</v>
+        <v>342</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>78</v>
@@ -7614,13 +7686,13 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>398</v>
+        <v>343</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>399</v>
+        <v>344</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>78</v>
@@ -7628,10 +7700,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>400</v>
+        <v>349</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7639,7 +7711,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>88</v>
@@ -7654,17 +7726,15 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>401</v>
+        <v>239</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>402</v>
+        <v>240</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -7713,7 +7783,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>400</v>
+        <v>242</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7725,19 +7795,19 @@
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>405</v>
+        <v>243</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>406</v>
+        <v>78</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>78</v>
@@ -7745,21 +7815,21 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>407</v>
+        <v>351</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -7771,16 +7841,16 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>408</v>
+        <v>134</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>409</v>
+        <v>135</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>410</v>
+        <v>245</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>411</v>
+        <v>137</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7818,43 +7888,43 @@
         <v>78</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>78</v>
+        <v>331</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>78</v>
+        <v>333</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>407</v>
+        <v>246</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>412</v>
+        <v>243</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>413</v>
+        <v>78</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>78</v>
@@ -7862,10 +7932,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>414</v>
+        <v>353</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7873,10 +7943,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
@@ -7885,21 +7955,23 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>415</v>
+        <v>102</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>416</v>
+        <v>354</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>417</v>
+        <v>355</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
       </c>
@@ -7908,7 +7980,7 @@
         <v>78</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>78</v>
+        <v>401</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>78</v>
@@ -7947,13 +8019,13 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>414</v>
+        <v>359</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
@@ -7965,20 +8037,1077 @@
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="Z60" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="AM54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO54" t="s" s="2">
+      <c r="AA60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO63" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO54">
+  <autoFilter ref="A1:AO63">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7988,7 +9117,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI53">
+  <conditionalFormatting sqref="A2:AI62">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2358" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2358" uniqueCount="445">
   <si>
     <t>Property</t>
   </si>
@@ -1097,159 +1097,169 @@
     <t>SCT</t>
   </si>
   <si>
+    <t xml:space="preserve">SNOMED CT
+</t>
+  </si>
+  <si>
+    <t>Administrasjonsvei kodet med SNOMED CT, hentet fra verdisett foreslått av HL7.</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.route.coding:SCT.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.route.coding.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.route.coding:SCT.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.route.coding.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.route.coding:SCT.system</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.route.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.route.coding:SCT.version</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.route.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.route.coding:SCT.code</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.route.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.route.coding:SCT.display</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.route.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.route.coding:SCT.userSelected</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.route.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.route.coding:7477</t>
+  </si>
+  <si>
+    <t>7477</t>
+  </si>
+  <si>
     <t xml:space="preserve">Administrasjonsvei (OID=7477)
 </t>
   </si>
   <si>
-    <t>MedicationAdministration.dosage.route.coding:SCT.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.route.coding.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.route.coding:SCT.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.route.coding.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.route.coding:SCT.system</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.route.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.route.coding:SCT.version</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.route.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.route.coding:SCT.code</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.route.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.route.coding:SCT.display</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.route.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.route.coding:SCT.userSelected</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.route.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.route.coding:7477</t>
-  </si>
-  <si>
-    <t>7477</t>
+    <t>Administrasjonsvei (OID=7477) fra kodeverkssamling Resept.</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.route.coding:7477.id</t>
@@ -6673,7 +6683,7 @@
         <v>336</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>338</v>
@@ -6760,10 +6770,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6875,10 +6885,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6992,10 +7002,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7021,16 +7031,16 @@
         <v>102</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7040,7 +7050,7 @@
         <v>78</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>78</v>
@@ -7079,7 +7089,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7097,13 +7107,13 @@
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>78</v>
@@ -7111,10 +7121,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7140,13 +7150,13 @@
         <v>239</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7196,7 +7206,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7214,13 +7224,13 @@
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>78</v>
@@ -7228,10 +7238,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7257,14 +7267,14 @@
         <v>108</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7311,7 +7321,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7329,13 +7339,13 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>78</v>
@@ -7343,10 +7353,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7372,14 +7382,14 @@
         <v>239</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -7428,7 +7438,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7446,13 +7456,13 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>78</v>
@@ -7460,10 +7470,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7486,19 +7496,19 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7547,7 +7557,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7565,13 +7575,13 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>78</v>
@@ -7579,16 +7589,16 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>334</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D51" t="s" s="2">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7613,7 +7623,7 @@
         <v>336</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>337</v>
+        <v>400</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>338</v>
@@ -7700,10 +7710,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7815,10 +7825,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7932,10 +7942,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7961,16 +7971,16 @@
         <v>102</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -7980,7 +7990,7 @@
         <v>78</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>78</v>
@@ -8019,7 +8029,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8037,13 +8047,13 @@
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>78</v>
@@ -8051,10 +8061,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8080,13 +8090,13 @@
         <v>239</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8136,7 +8146,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8154,13 +8164,13 @@
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>78</v>
@@ -8168,10 +8178,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8197,14 +8207,14 @@
         <v>108</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8253,7 +8263,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8271,13 +8281,13 @@
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>78</v>
@@ -8285,10 +8295,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8314,14 +8324,14 @@
         <v>239</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>78</v>
@@ -8370,7 +8380,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8388,13 +8398,13 @@
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>78</v>
@@ -8402,10 +8412,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8428,19 +8438,19 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -8489,7 +8499,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8507,13 +8517,13 @@
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>78</v>
@@ -8521,10 +8531,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8550,16 +8560,16 @@
         <v>239</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -8608,7 +8618,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8626,13 +8636,13 @@
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>78</v>
@@ -8640,10 +8650,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8669,13 +8679,13 @@
         <v>175</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8704,10 +8714,10 @@
         <v>178</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>78</v>
@@ -8725,7 +8735,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8743,13 +8753,13 @@
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>78</v>
@@ -8757,10 +8767,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8783,16 +8793,16 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8842,7 +8852,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -8860,13 +8870,13 @@
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>78</v>
@@ -8874,10 +8884,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8900,16 +8910,16 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8959,7 +8969,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -8977,13 +8987,13 @@
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>78</v>
@@ -8991,10 +9001,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9017,16 +9027,16 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9076,7 +9086,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9094,7 +9104,7 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>

--- a/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
@@ -1097,8 +1097,7 @@
     <t>SCT</t>
   </si>
   <si>
-    <t xml:space="preserve">SNOMED CT
-</t>
+    <t>SNOMED CT</t>
   </si>
   <si>
     <t>Administrasjonsvei kodet med SNOMED CT, hentet fra verdisett foreslått av HL7.</t>
@@ -1255,8 +1254,7 @@
     <t>7477</t>
   </si>
   <si>
-    <t xml:space="preserve">Administrasjonsvei (OID=7477)
-</t>
+    <t>Administrasjonsvei (OID=7477)</t>
   </si>
   <si>
     <t>Administrasjonsvei (OID=7477) fra kodeverkssamling Resept.</t>
@@ -1344,7 +1342,7 @@
     <t>Administrert mengde</t>
   </si>
   <si>
-    <t>The amount of the medication given at one administration event.   Use this value when the administration is essentially an instantaneous event such as a swallowing a tablet or giving an injection.</t>
+    <t>Administrert mengde av legemiddelet som det blir referert til.</t>
   </si>
   <si>
     <t>If the administration is not instantaneous (rate is present), this can be specified to convey the total amount administered over period of time of a single administration.</t>
@@ -6658,7 +6656,7 @@
         <v>346</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>347</v>
+        <v>78</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6680,7 +6678,7 @@
         <v>335</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>348</v>
@@ -7598,7 +7596,7 @@
         <v>398</v>
       </c>
       <c r="D51" t="s" s="2">
-        <v>399</v>
+        <v>78</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7620,7 +7618,7 @@
         <v>335</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>336</v>
+        <v>399</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>400</v>

--- a/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
@@ -825,7 +825,7 @@
     <t>MedicationAdministration.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Patient|RelatedPerson|Device)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
 </t>
   </si>
   <si>
@@ -1731,7 +1731,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="65.56640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="48.8203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2358" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="449">
   <si>
     <t>Property</t>
   </si>
@@ -84,7 +84,8 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Beskriver administrasjon av legemiddel til pasient på institusjon.</t>
+    <t>Beskriver administrasjon av legemiddel til pasient på institusjon.
+Dette er kjerneressursen for denne implementasjonsguiden. Den peker videre legemiddelet som ble gitt, pasienten som har fått administrert legemiddel, på hvilken institusjon det skjedde, tidspunkt for administrering, hvem som utførte (helsepersonell eller rolle ved institusjon) og dose med eventuell administrasjonsvei.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -533,7 +534,7 @@
     <t>Status administrering.</t>
   </si>
   <si>
-    <t xml:space="preserve">Status administrering. Skal alltid være satt til utført = completed. </t>
+    <t xml:space="preserve">Status administrering. Skal vanligvis settes til 'Gjennomført' (completed), men 'Feilregistrert' (entered-in-error) MÅ benyttes hvis registreringen inneholder en alvorlig feil og skal slettes. </t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
@@ -613,7 +614,7 @@
 Reference(Medication)</t>
   </si>
   <si>
-    <t>What was administered</t>
+    <t>Administrert legemiddel.</t>
   </si>
   <si>
     <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
@@ -672,10 +673,13 @@
 </t>
   </si>
   <si>
-    <t>Referanse til aktuelt opphold</t>
-  </si>
-  <si>
-    <t>Referanse til hvilket opphold eller avtale pasienten var på da legemiddelet ble administrert.</t>
+    <t>Referanse til aktuelt institusjonsopphold</t>
+  </si>
+  <si>
+    <t>Referanse til hvilket institusjonsopphold eller avtale pasienten var på da legemiddelet ble administrert.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO Encounter må vurderes om nødvendig, f.eks. hos spesialist. </t>
   </si>
   <si>
     <t>Event.context</t>
@@ -719,6 +723,9 @@
     <t>A specific date/time or interval of time during which the administration took place (or did not take place, when the 'notGiven' attribute is true). For many administrations, such as swallowing a tablet the use of dateTime is more appropriate.</t>
   </si>
   <si>
+    <t>NB! R5 bruker 'occurence'. Behov for 'Period' ved infusjon?</t>
+  </si>
+  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -835,6 +842,9 @@
     <t xml:space="preserve">Utfører av administrering kan være helsepersonell eller en rolle knyttet til institusjonen eller pasienten. </t>
   </si>
   <si>
+    <t>TODO #21 Tolkning: Det viktigste er helsepersonellets rolle ved institusjonen, og ikke selve helsepersonellet?</t>
+  </si>
+  <si>
     <t>Event.performer.actor</t>
   </si>
   <si>
@@ -906,7 +916,7 @@
     <t>The original request, instruction or authority to perform the administration.</t>
   </si>
   <si>
-    <t>This is a reference to the MedicationRequest  where the intent is either order or instance-order.  It should not reference MedicationRequests where the intent is any other value.</t>
+    <t>Usikker på hvordan dette skal støttes p.t.</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -1026,6 +1036,9 @@
   </si>
   <si>
     <t xml:space="preserve">Aministrasjonsvei. Er begrenset til foreslått koding fra SNOMED CT-verdisettet til HL7 og Volven-kodeverket Administrasjonsvei (OID=7477) fra eResept. </t>
+  </si>
+  <si>
+    <t>TODO #22 Diskuter om det bør være 0..1 hvis man ikke har registret administrasjonsvei.</t>
   </si>
   <si>
     <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
@@ -3899,7 +3912,9 @@
       <c r="M19" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>78</v>
@@ -3963,16 +3978,16 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>78</v>
@@ -3980,10 +3995,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4006,13 +4021,13 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4063,7 +4078,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4081,10 +4096,10 @@
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -4095,10 +4110,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4121,15 +4136,17 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -4178,7 +4195,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>88</v>
@@ -4193,16 +4210,16 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>78</v>
@@ -4210,10 +4227,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4236,13 +4253,13 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4293,7 +4310,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4308,16 +4325,16 @@
         <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>78</v>
@@ -4325,10 +4342,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4351,13 +4368,13 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4408,7 +4425,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4426,7 +4443,7 @@
         <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>78</v>
@@ -4440,10 +4457,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4472,7 +4489,7 @@
         <v>135</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N24" t="s" s="2">
         <v>137</v>
@@ -4525,7 +4542,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4543,7 +4560,7 @@
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
@@ -4557,14 +4574,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4586,10 +4603,10 @@
         <v>134</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N25" t="s" s="2">
         <v>137</v>
@@ -4644,7 +4661,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4676,10 +4693,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4705,10 +4722,10 @@
         <v>175</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4738,10 +4755,10 @@
         <v>178</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -4759,7 +4776,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4774,10 +4791,10 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
@@ -4791,10 +4808,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4817,15 +4834,17 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -4874,7 +4893,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>88</v>
@@ -4889,10 +4908,10 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
@@ -4906,10 +4925,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4935,10 +4954,10 @@
         <v>175</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4968,28 +4987,28 @@
         <v>178</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5004,16 +5023,16 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>78</v>
@@ -5021,10 +5040,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5047,16 +5066,16 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5106,7 +5125,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5121,27 +5140,27 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5164,16 +5183,16 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5223,7 +5242,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5238,16 +5257,16 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>78</v>
@@ -5255,10 +5274,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5281,13 +5300,13 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5338,7 +5357,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5356,13 +5375,13 @@
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>78</v>
@@ -5370,10 +5389,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5396,13 +5415,13 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5453,7 +5472,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5468,10 +5487,10 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5485,10 +5504,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5511,13 +5530,13 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5568,7 +5587,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5580,13 +5599,13 @@
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5600,10 +5619,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5626,13 +5645,13 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5683,7 +5702,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5701,7 +5720,7 @@
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5715,10 +5734,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5747,7 +5766,7 @@
         <v>135</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>137</v>
@@ -5800,7 +5819,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5818,7 +5837,7 @@
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5832,14 +5851,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5861,10 +5880,10 @@
         <v>134</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>137</v>
@@ -5919,7 +5938,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5951,10 +5970,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5977,13 +5996,13 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6034,7 +6053,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6052,7 +6071,7 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -6066,10 +6085,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6095,13 +6114,13 @@
         <v>175</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6130,10 +6149,10 @@
         <v>178</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>78</v>
@@ -6151,7 +6170,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6169,13 +6188,13 @@
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>78</v>
@@ -6183,10 +6202,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6212,12 +6231,14 @@
         <v>175</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -6245,28 +6266,28 @@
         <v>178</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6284,13 +6305,13 @@
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>78</v>
@@ -6298,10 +6319,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6324,13 +6345,13 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6381,7 +6402,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6399,7 +6420,7 @@
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -6413,10 +6434,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6445,7 +6466,7 @@
         <v>135</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>137</v>
@@ -6486,19 +6507,19 @@
         <v>78</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6516,7 +6537,7 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -6530,10 +6551,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6556,19 +6577,19 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6605,17 +6626,17 @@
         <v>78</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6633,13 +6654,13 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
@@ -6647,13 +6668,13 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>78</v>
@@ -6675,19 +6696,19 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6736,7 +6757,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6754,13 +6775,13 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -6768,10 +6789,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6794,13 +6815,13 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6851,7 +6872,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6869,7 +6890,7 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -6883,10 +6904,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6915,7 +6936,7 @@
         <v>135</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>137</v>
@@ -6956,19 +6977,19 @@
         <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6986,7 +7007,7 @@
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -7000,10 +7021,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7029,16 +7050,16 @@
         <v>102</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7048,7 +7069,7 @@
         <v>78</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>78</v>
@@ -7087,7 +7108,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7105,13 +7126,13 @@
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>78</v>
@@ -7119,10 +7140,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7145,16 +7166,16 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7204,7 +7225,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7222,13 +7243,13 @@
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>78</v>
@@ -7236,10 +7257,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7265,14 +7286,14 @@
         <v>108</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7301,7 +7322,7 @@
       </c>
       <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>78</v>
@@ -7319,7 +7340,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7337,13 +7358,13 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>78</v>
@@ -7351,10 +7372,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7377,17 +7398,17 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -7436,7 +7457,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7454,13 +7475,13 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>78</v>
@@ -7468,10 +7489,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7494,19 +7515,19 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7555,7 +7576,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7573,13 +7594,13 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>78</v>
@@ -7587,13 +7608,13 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>78</v>
@@ -7615,19 +7636,19 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -7676,7 +7697,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7694,13 +7715,13 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>78</v>
@@ -7708,10 +7729,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7734,13 +7755,13 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7791,7 +7812,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7809,7 +7830,7 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
@@ -7823,10 +7844,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7855,7 +7876,7 @@
         <v>135</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>137</v>
@@ -7896,19 +7917,19 @@
         <v>78</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -7926,7 +7947,7 @@
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
@@ -7940,10 +7961,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7969,16 +7990,16 @@
         <v>102</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -7988,7 +8009,7 @@
         <v>78</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>78</v>
@@ -8027,7 +8048,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8045,13 +8066,13 @@
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>78</v>
@@ -8059,10 +8080,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8085,16 +8106,16 @@
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8144,7 +8165,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8162,13 +8183,13 @@
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>78</v>
@@ -8176,10 +8197,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8205,14 +8226,14 @@
         <v>108</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8261,7 +8282,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8279,13 +8300,13 @@
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>78</v>
@@ -8293,10 +8314,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8319,17 +8340,17 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>78</v>
@@ -8378,7 +8399,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8396,13 +8417,13 @@
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>78</v>
@@ -8410,10 +8431,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8436,19 +8457,19 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -8497,7 +8518,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8515,13 +8536,13 @@
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>78</v>
@@ -8529,10 +8550,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8555,19 +8576,19 @@
         <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -8616,7 +8637,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8634,13 +8655,13 @@
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>78</v>
@@ -8648,10 +8669,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8677,13 +8698,13 @@
         <v>175</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8712,28 +8733,28 @@
         <v>178</v>
       </c>
       <c r="Y60" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF60" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8751,13 +8772,13 @@
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>78</v>
@@ -8765,10 +8786,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8791,16 +8812,16 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8850,7 +8871,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -8868,13 +8889,13 @@
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>78</v>
@@ -8882,10 +8903,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8908,16 +8929,16 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8967,7 +8988,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -8985,13 +9006,13 @@
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>78</v>
@@ -8999,10 +9020,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9025,16 +9046,16 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9084,7 +9105,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9102,7 +9123,7 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>

--- a/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.6</t>
+    <t>0.6.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
@@ -713,8 +713,8 @@
     <t>MedicationAdministration.effective[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
-</t>
+    <t>dateTime
+Period</t>
   </si>
   <si>
     <t>Tidspunkt for administrasjon</t>

--- a/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2399" uniqueCount="453">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.7</t>
+    <t>0.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -1383,10 +1383,24 @@
     <t>If the rate changes over time, and you want to capture this in MedicationAdministration, then each change should be captured as a distinct MedicationAdministration, with a specific MedicationAdministration.dosage.rate, and the date time when the rate change occurred. Typically, the MedicationAdministration.dosage.rate element is not used to convey an average rate.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
     <t>.rateQuantity</t>
   </si>
   <si>
     <t>RXA-12-Administered Per (Time Unit)</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x]:rateRatio</t>
+  </si>
+  <si>
+    <t>rateRatio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio
+</t>
   </si>
   <si>
     <t>MedicationAdministration.eventHistory</t>
@@ -1725,7 +1739,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO63"/>
+  <dimension ref="A1:AO64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8976,16 +8990,14 @@
         <v>78</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="AC62" s="2"/>
       <c r="AD62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>78</v>
+        <v>337</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>436</v>
@@ -9006,13 +9018,13 @@
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>78</v>
@@ -9020,12 +9032,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="D63" t="s" s="2">
         <v>78</v>
       </c>
@@ -9034,10 +9048,10 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>78</v>
@@ -9046,16 +9060,16 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9105,13 +9119,13 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>78</v>
@@ -9123,20 +9137,137 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="AM63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO63" t="s" s="2">
+      <c r="L64" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO64" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO63">
+  <autoFilter ref="A1:AO64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9146,7 +9277,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI62">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.0</t>
+    <t>0.8.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.1</t>
+    <t>0.8.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.2</t>
+    <t>0.8.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.3</t>
+    <t>0.8.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -6227,13 +6227,13 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>78</v>

--- a/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.4</t>
+    <t>0.8.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-12</t>
+    <t>2024-06-24</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1352,10 +1352,10 @@
 </t>
   </si>
   <si>
-    <t>Administrert mengde</t>
-  </si>
-  <si>
-    <t>Administrert mengde av legemiddelet som det blir referert til.</t>
+    <t>Administrert mengde virkestoff</t>
+  </si>
+  <si>
+    <t>Mengde (dosering) av legemiddelets primære virkestoff.</t>
   </si>
   <si>
     <t>If the administration is not instantaneous (rate is present), this can be specified to convey the total amount administered over period of time of a single administration.</t>

--- a/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
@@ -679,7 +679,7 @@
     <t>Referanse til hvilket institusjonsopphold eller avtale pasienten var på da legemiddelet ble administrert.</t>
   </si>
   <si>
-    <t xml:space="preserve">TODO Encounter må vurderes om nødvendig, f.eks. hos spesialist. </t>
+    <t>Encounter må vurderes om nødvendig, f.eks. hos spesialist.</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -717,7 +717,7 @@
 Period</t>
   </si>
   <si>
-    <t>Tidspunkt for administrasjon</t>
+    <t>Tidspunkt eller periode for administrasjon</t>
   </si>
   <si>
     <t>A specific date/time or interval of time during which the administration took place (or did not take place, when the 'notGiven' attribute is true). For many administrations, such as swallowing a tablet the use of dateTime is more appropriate.</t>

--- a/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2399" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="452">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.5</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -723,9 +723,6 @@
     <t>A specific date/time or interval of time during which the administration took place (or did not take place, when the 'notGiven' attribute is true). For many administrations, such as swallowing a tablet the use of dateTime is more appropriate.</t>
   </si>
   <si>
-    <t>NB! R5 bruker 'occurence'. Behov for 'Period' ved infusjon?</t>
-  </si>
-  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -913,10 +910,10 @@
     <t>Referanse til rekvisisjon</t>
   </si>
   <si>
-    <t>The original request, instruction or authority to perform the administration.</t>
-  </si>
-  <si>
-    <t>Usikker på hvordan dette skal støttes p.t.</t>
+    <t>Referanse til rekvisisjonen som denne administreringen er basert på (som for eksempel resept eller ordinering.</t>
+  </si>
+  <si>
+    <t>This is a reference to the MedicationRequest  where the intent is either order or instance-order.  It should not reference MedicationRequests where the intent is any other value.</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -4158,9 +4155,7 @@
       <c r="M21" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="N21" t="s" s="2">
-        <v>227</v>
-      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -4224,16 +4219,16 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>78</v>
@@ -4241,10 +4236,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4267,13 +4262,13 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4324,7 +4319,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4339,16 +4334,16 @@
         <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>78</v>
@@ -4356,10 +4351,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4382,13 +4377,13 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4439,7 +4434,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4457,7 +4452,7 @@
         <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>78</v>
@@ -4471,10 +4466,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4503,7 +4498,7 @@
         <v>135</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N24" t="s" s="2">
         <v>137</v>
@@ -4556,7 +4551,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4574,7 +4569,7 @@
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
@@ -4588,14 +4583,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4617,10 +4612,10 @@
         <v>134</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="N25" t="s" s="2">
         <v>137</v>
@@ -4675,7 +4670,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4707,10 +4702,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4736,10 +4731,10 @@
         <v>175</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4769,11 +4764,11 @@
         <v>178</v>
       </c>
       <c r="Y26" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="Z26" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="Z26" t="s" s="2">
-        <v>258</v>
-      </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
       </c>
@@ -4790,7 +4785,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4805,10 +4800,10 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
@@ -4822,10 +4817,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4848,16 +4843,16 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4907,7 +4902,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>88</v>
@@ -4922,10 +4917,10 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
@@ -4939,10 +4934,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4968,10 +4963,10 @@
         <v>175</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5001,11 +4996,11 @@
         <v>178</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="Z28" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>272</v>
-      </c>
       <c r="AA28" t="s" s="2">
         <v>78</v>
       </c>
@@ -5022,7 +5017,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5037,16 +5032,16 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>78</v>
@@ -5054,10 +5049,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5080,16 +5075,16 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5139,7 +5134,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5154,27 +5149,27 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>284</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5197,16 +5192,16 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5256,7 +5251,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5271,16 +5266,16 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>78</v>
@@ -5288,10 +5283,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5314,13 +5309,13 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5371,7 +5366,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5389,13 +5384,13 @@
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>78</v>
@@ -5403,10 +5398,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5429,13 +5424,13 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5486,7 +5481,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5501,10 +5496,10 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5518,10 +5513,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5544,13 +5539,13 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5601,7 +5596,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5613,13 +5608,13 @@
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5633,10 +5628,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5659,13 +5654,13 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5716,7 +5711,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5734,7 +5729,7 @@
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5748,10 +5743,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5780,7 +5775,7 @@
         <v>135</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>137</v>
@@ -5833,7 +5828,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5851,7 +5846,7 @@
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5865,14 +5860,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5894,10 +5889,10 @@
         <v>134</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>137</v>
@@ -5952,7 +5947,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5984,10 +5979,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6010,13 +6005,13 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6067,7 +6062,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6085,7 +6080,7 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -6099,10 +6094,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6128,13 +6123,13 @@
         <v>175</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6163,11 +6158,11 @@
         <v>178</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="Z38" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>322</v>
-      </c>
       <c r="AA38" t="s" s="2">
         <v>78</v>
       </c>
@@ -6184,7 +6179,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6202,13 +6197,13 @@
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>78</v>
@@ -6216,10 +6211,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6245,13 +6240,13 @@
         <v>175</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6280,11 +6275,11 @@
         <v>178</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="Z39" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>330</v>
-      </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
       </c>
@@ -6301,7 +6296,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6319,13 +6314,13 @@
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>78</v>
@@ -6333,10 +6328,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6359,13 +6354,13 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6416,7 +6411,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6434,7 +6429,7 @@
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -6448,10 +6443,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6480,7 +6475,7 @@
         <v>135</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>137</v>
@@ -6521,19 +6516,19 @@
         <v>78</v>
       </c>
       <c r="AB41" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AC41" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AC41" t="s" s="2">
+      <c r="AD41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AD41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>337</v>
-      </c>
       <c r="AF41" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6551,7 +6546,7 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -6565,10 +6560,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6591,19 +6586,19 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6640,17 +6635,17 @@
         <v>78</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AF42" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6668,13 +6663,13 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
@@ -6682,13 +6677,13 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="C43" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>78</v>
@@ -6710,19 +6705,19 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="M43" t="s" s="2">
-        <v>352</v>
-      </c>
       <c r="N43" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="O43" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6771,7 +6766,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6789,13 +6784,13 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -6803,10 +6798,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="B44" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6829,13 +6824,13 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6886,7 +6881,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6904,7 +6899,7 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -6918,10 +6913,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B45" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6950,7 +6945,7 @@
         <v>135</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>137</v>
@@ -6991,19 +6986,19 @@
         <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AC45" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AC45" t="s" s="2">
+      <c r="AD45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE45" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AD45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>337</v>
-      </c>
       <c r="AF45" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7021,7 +7016,7 @@
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -7035,10 +7030,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B46" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7064,16 +7059,16 @@
         <v>102</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7083,46 +7078,46 @@
         <v>78</v>
       </c>
       <c r="S46" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF46" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7140,13 +7135,13 @@
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>78</v>
@@ -7154,10 +7149,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B47" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7180,16 +7175,16 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7239,7 +7234,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7257,13 +7252,13 @@
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>78</v>
@@ -7271,10 +7266,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B48" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7300,14 +7295,14 @@
         <v>108</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7336,7 +7331,7 @@
       </c>
       <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>78</v>
@@ -7354,7 +7349,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7372,13 +7367,13 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>78</v>
@@ -7386,10 +7381,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B49" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7412,17 +7407,17 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -7471,7 +7466,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7489,13 +7484,13 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>78</v>
@@ -7503,10 +7498,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7529,19 +7524,19 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7590,7 +7585,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7608,13 +7603,13 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>78</v>
@@ -7622,13 +7617,13 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="C51" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>78</v>
@@ -7650,19 +7645,19 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="M51" t="s" s="2">
-        <v>404</v>
-      </c>
       <c r="N51" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="O51" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -7711,7 +7706,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7729,13 +7724,13 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>78</v>
@@ -7743,10 +7738,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7769,13 +7764,13 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7826,7 +7821,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7844,7 +7839,7 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
@@ -7858,10 +7853,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7890,7 +7885,7 @@
         <v>135</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>137</v>
@@ -7931,19 +7926,19 @@
         <v>78</v>
       </c>
       <c r="AB53" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AC53" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AC53" t="s" s="2">
+      <c r="AD53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE53" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AD53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>337</v>
-      </c>
       <c r="AF53" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -7961,7 +7956,7 @@
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
@@ -7975,10 +7970,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8004,16 +7999,16 @@
         <v>102</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -8023,7 +8018,7 @@
         <v>78</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>78</v>
@@ -8062,7 +8057,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8080,13 +8075,13 @@
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>78</v>
@@ -8094,10 +8089,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8120,16 +8115,16 @@
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8179,7 +8174,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8197,13 +8192,13 @@
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>78</v>
@@ -8211,10 +8206,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8240,14 +8235,14 @@
         <v>108</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8296,7 +8291,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8314,13 +8309,13 @@
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>78</v>
@@ -8328,10 +8323,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8354,17 +8349,17 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>78</v>
@@ -8413,7 +8408,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8431,13 +8426,13 @@
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>78</v>
@@ -8445,10 +8440,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8471,19 +8466,19 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -8532,7 +8527,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8550,13 +8545,13 @@
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>78</v>
@@ -8564,10 +8559,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8590,19 +8585,19 @@
         <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="N59" t="s" s="2">
+      <c r="O59" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -8651,7 +8646,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8669,13 +8664,13 @@
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>78</v>
@@ -8683,10 +8678,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8712,13 +8707,13 @@
         <v>175</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8747,11 +8742,11 @@
         <v>178</v>
       </c>
       <c r="Y60" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="Z60" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>426</v>
-      </c>
       <c r="AA60" t="s" s="2">
         <v>78</v>
       </c>
@@ -8768,7 +8763,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8786,13 +8781,13 @@
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>78</v>
@@ -8800,10 +8795,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8826,16 +8821,16 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8885,7 +8880,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -8903,13 +8898,13 @@
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>78</v>
@@ -8917,10 +8912,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8943,16 +8938,16 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8990,17 +8985,17 @@
         <v>78</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9018,13 +9013,13 @@
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>78</v>
@@ -9032,13 +9027,13 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="C63" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>78</v>
@@ -9060,16 +9055,16 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9119,7 +9114,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9137,13 +9132,13 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>78</v>
@@ -9151,10 +9146,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9177,16 +9172,16 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9236,7 +9231,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9254,7 +9249,7 @@
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>78</v>

--- a/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-administrert-legemiddel.xlsx
@@ -1032,7 +1032,7 @@
     <t>Administrasjonsvei</t>
   </si>
   <si>
-    <t xml:space="preserve">Aministrasjonsvei. Er begrenset til foreslått koding fra SNOMED CT-verdisettet til HL7 og Volven-kodeverket Administrasjonsvei (OID=7477) fra eResept. </t>
+    <t xml:space="preserve">Administrasjonsvei. Er begrenset til foreslått koding fra SNOMED CT-verdisettet til HL7 og Volven-kodeverket Administrasjonsvei (OID=7477) fra eResept. </t>
   </si>
   <si>
     <t>TODO #22 Diskuter om det bør være 0..1 hvis man ikke har registret administrasjonsvei.</t>
